--- a/data/Subset1_WithDialogActs/Math SW3 transcript.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Math SW3 transcript.xlsx_with_dialog_acts.xlsx
@@ -891,12 +891,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1395,12 +1395,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1689,12 +1689,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1941,12 +1941,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2705,12 +2705,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2999,12 +2999,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4347,12 +4347,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4557,12 +4557,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4725,12 +4725,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5019,12 +5019,12 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5145,12 +5145,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5691,12 +5691,12 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6065,12 +6065,12 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6317,12 +6317,12 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6359,12 +6359,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6443,12 +6443,12 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6947,12 +6947,12 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6989,12 +6989,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7409,12 +7409,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7493,12 +7493,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7875,12 +7875,12 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8803,12 +8803,12 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9685,12 +9685,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9853,12 +9853,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9895,12 +9895,12 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10315,12 +10315,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10739,12 +10739,12 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11075,12 +11075,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11327,12 +11327,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -12083,12 +12083,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12293,12 +12293,12 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12335,12 +12335,12 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12461,12 +12461,12 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12713,12 +12713,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13011,12 +13011,12 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13351,12 +13351,12 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13435,12 +13435,12 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14149,12 +14149,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14233,12 +14233,12 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14775,12 +14775,12 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14859,12 +14859,12 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15195,12 +15195,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15237,12 +15237,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15531,12 +15531,12 @@
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15741,12 +15741,12 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16119,12 +16119,12 @@
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17265,12 +17265,12 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17521,12 +17521,12 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17731,12 +17731,12 @@
       <c r="H411" t="inlineStr"/>
       <c r="I411" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18235,12 +18235,12 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18445,12 +18445,12 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18571,12 +18571,12 @@
       <c r="H431" t="inlineStr"/>
       <c r="I431" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19327,12 +19327,12 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19495,12 +19495,12 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19663,12 +19663,12 @@
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19999,12 +19999,12 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20125,12 +20125,12 @@
       <c r="H468" t="inlineStr"/>
       <c r="I468" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20251,12 +20251,12 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21091,12 +21091,12 @@
       <c r="H491" t="inlineStr"/>
       <c r="I491" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21519,12 +21519,12 @@
       <c r="H501" t="inlineStr"/>
       <c r="I501" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22107,12 +22107,12 @@
       <c r="H515" t="inlineStr"/>
       <c r="I515" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22447,12 +22447,12 @@
       <c r="H523" t="inlineStr"/>
       <c r="I523" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -22783,12 +22783,12 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22951,12 +22951,12 @@
       <c r="H535" t="inlineStr"/>
       <c r="I535" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -23497,12 +23497,12 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23581,12 +23581,12 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -23917,12 +23917,12 @@
       <c r="H558" t="inlineStr"/>
       <c r="I558" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24673,12 +24673,12 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25265,12 +25265,12 @@
       <c r="H590" t="inlineStr"/>
       <c r="I590" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -25559,12 +25559,12 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25601,12 +25601,12 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26273,12 +26273,12 @@
       <c r="H614" t="inlineStr"/>
       <c r="I614" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27411,12 +27411,12 @@
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27453,12 +27453,12 @@
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27541,12 +27541,12 @@
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28129,12 +28129,12 @@
       <c r="H658" t="inlineStr"/>
       <c r="I658" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28213,12 +28213,12 @@
       <c r="H660" t="inlineStr"/>
       <c r="I660" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28969,12 +28969,12 @@
       <c r="H678" t="inlineStr"/>
       <c r="I678" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -29053,12 +29053,12 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29599,12 +29599,12 @@
       <c r="H693" t="inlineStr"/>
       <c r="I693" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -29809,12 +29809,12 @@
       <c r="H698" t="inlineStr"/>
       <c r="I698" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J698" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29977,12 +29977,12 @@
       <c r="H702" t="inlineStr"/>
       <c r="I702" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -30271,12 +30271,12 @@
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J709" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -30691,12 +30691,12 @@
       <c r="H719" t="inlineStr"/>
       <c r="I719" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J719" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -30733,12 +30733,12 @@
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J720" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30905,12 +30905,12 @@
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J724" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30985,12 +30985,12 @@
       <c r="H726" t="inlineStr"/>
       <c r="I726" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J726" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
